--- a/template/potem10.xlsx
+++ b/template/potem10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7675A83-A22B-2D44-AF59-AF9026FA00E2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4501803-31FD-9F40-BD38-9C3A6F98E4C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -309,7 +309,29 @@
     <t>款号</t>
   </si>
   <si>
-    <t>送货地址：  东莞市沙田镇义沙村天宅路2号</t>
+    <t xml:space="preserve">          客户确認章：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          确认日期：</t>
+  </si>
+  <si>
+    <r>
+      <t>聯繫人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货地址：</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -325,45 +347,7 @@
       </rPr>
       <t>联系电话：</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      0769 88809301 -8025</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">          客户确認章：</t>
-  </si>
-  <si>
-    <r>
-      <t>聯繫人</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">:                 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Quentin</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">          确认日期：</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -813,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -838,7 +822,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -909,6 +892,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -926,18 +922,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,7 +1561,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1621,10 +1616,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1715,8 +1710,8 @@
       <c r="I5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1734,464 +1729,464 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" ht="36" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="49"/>
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="88.5" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
     </row>
     <row r="13" spans="1:26" ht="24" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="1:26" ht="24" customHeight="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="21" customHeight="1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="38" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+    </row>
+    <row r="19" spans="1:26" ht="11.25" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+    </row>
+    <row r="20" spans="1:26" ht="21.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-    </row>
-    <row r="19" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-    </row>
-    <row r="20" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1">
       <c r="A21" s="1"/>
@@ -29634,7 +29629,9 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="J13:J16"/>
     <mergeCell ref="K13:K16"/>
@@ -29643,6 +29640,8 @@
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/template/potem10.xlsx
+++ b/template/potem10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4501803-31FD-9F40-BD38-9C3A6F98E4C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1915DCB6-60EF-A642-BD16-F96B672A7A37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HA0300-J28863" sheetId="1" r:id="rId1"/>
@@ -540,18 +540,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="20">
@@ -797,142 +791,148 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,9 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1579,20 +1577,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -1609,18 +1607,18 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="16">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="1"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1637,22 +1635,22 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="8" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1669,20 +1667,20 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1699,20 +1697,20 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="9" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1729,478 +1727,478 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="36" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="16" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="88.5" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="24" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="24" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="21" customHeight="1">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="37" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="13" t="s">
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="12" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2217,18 +2215,18 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="12" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2245,18 +2243,18 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="12" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2273,18 +2271,18 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="12" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2301,18 +2299,18 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="12" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -2329,18 +2327,18 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="12" customHeight="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -2357,18 +2355,18 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="12" customHeight="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2385,18 +2383,18 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="12" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -2413,18 +2411,18 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="12" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -29630,11 +29628,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:G9"/>
@@ -29642,6 +29635,11 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/template/potem10.xlsx
+++ b/template/potem10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1915DCB6-60EF-A642-BD16-F96B672A7A37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{295E6CAA-7832-8A4F-B1F5-E4E0222D194B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HA0300-J28863" sheetId="1" r:id="rId1"/>
@@ -804,10 +804,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,9 +825,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -841,17 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,14 +844,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -881,11 +858,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,23 +888,51 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,7 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1614,10 +1616,10 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
       <c r="L2" s="6"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1635,19 +1637,19 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="6"/>
@@ -1677,7 +1679,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="L4" s="6"/>
@@ -1705,11 +1707,11 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
       <c r="L5" s="6"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1727,20 +1729,20 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1757,20 +1759,20 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1787,18 +1789,18 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1815,34 +1817,34 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="36" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="24" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="29"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1859,18 +1861,18 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="88.5" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1887,24 +1889,24 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1921,22 +1923,22 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1953,18 +1955,18 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="24" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="38"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1981,18 +1983,18 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="24" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="54"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="38"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -2009,18 +2011,18 @@
       <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="24" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="54"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="38"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2037,18 +2039,18 @@
       <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="24" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="54"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="38"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -2065,18 +2067,18 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" ht="20.25" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2093,24 +2095,24 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="21" customHeight="1">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="60" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="61"/>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2127,18 +2129,18 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="11.25" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2155,22 +2157,22 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="21.75" customHeight="1">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -29628,6 +29630,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="F9:G9"/>
@@ -29635,11 +29642,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
